--- a/inputs/2025-06-26-Seibersdorf-PGIS3_dose.input.xlsx
+++ b/inputs/2025-06-26-Seibersdorf-PGIS3_dose.input.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\backpacks\Desktop\KrimMapRPy 4.0\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\backpacks\GitHub\KrigMapRPy\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -102,12 +102,6 @@
     <t>B_PGIS-87EF_2025_06_26_17_44_38_PEI.csv</t>
   </si>
   <si>
-    <t>trimmBeginningUpTo</t>
-  </si>
-  <si>
-    <t>trimmEndAfter</t>
-  </si>
-  <si>
     <t>Parameter</t>
   </si>
   <si>
@@ -118,6 +112,12 @@
   </si>
   <si>
     <t>2025-06-26-Seibersdorf</t>
+  </si>
+  <si>
+    <t>trimBeginningUpTo</t>
+  </si>
+  <si>
+    <t>trimEndAfter</t>
   </si>
 </sst>
 </file>
@@ -988,7 +988,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1000,10 +1000,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>10</v>
@@ -1138,7 +1138,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B16" s="1">
         <v>100</v>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B17" s="1">
         <v>1115</v>
@@ -1154,7 +1154,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B18" s="1">
         <v>40</v>
@@ -1166,17 +1166,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d476941f-028b-41e3-b03c-0b5d733f80fc" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e28c6720-69a0-4511-b744-f82cee9c107a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003F686C395C26DB46840338BECE971495" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="43b1bd120df228c0dbb137a4c9e26334">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e28c6720-69a0-4511-b744-f82cee9c107a" xmlns:ns3="d476941f-028b-41e3-b03c-0b5d733f80fc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="51fce89202948bdd76463f6a0094b1c8" ns2:_="" ns3:_="">
     <xsd:import namespace="e28c6720-69a0-4511-b744-f82cee9c107a"/>
@@ -1377,6 +1366,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d476941f-028b-41e3-b03c-0b5d733f80fc" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e28c6720-69a0-4511-b744-f82cee9c107a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1387,17 +1387,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3C531F3-1552-45D2-AD2D-397DF1E97302}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d476941f-028b-41e3-b03c-0b5d733f80fc"/>
-    <ds:schemaRef ds:uri="e28c6720-69a0-4511-b744-f82cee9c107a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14E48B56-C048-4D97-8BDC-4B73D12ECF43}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1416,6 +1405,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3C531F3-1552-45D2-AD2D-397DF1E97302}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d476941f-028b-41e3-b03c-0b5d733f80fc"/>
+    <ds:schemaRef ds:uri="e28c6720-69a0-4511-b744-f82cee9c107a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43D50559-8ED4-4325-83FC-222269B5A04C}">
   <ds:schemaRefs>
